--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T05:30:15+00:00</t>
+    <t>2024-03-18T05:38:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T05:38:44+00:00</t>
+    <t>2024-03-18T05:57:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T05:57:33+00:00</t>
+    <t>2024-03-18T06:27:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T06:27:27+00:00</t>
+    <t>2024-03-18T06:45:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T06:45:53+00:00</t>
+    <t>2024-03-18T07:21:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T07:21:08+00:00</t>
+    <t>2024-03-18T07:31:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T07:31:17+00:00</t>
+    <t>2024-03-18T07:41:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T07:41:19+00:00</t>
+    <t>2024-03-19T07:59:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T07:59:10+00:00</t>
+    <t>2024-03-19T11:07:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T11:07:16+00:00</t>
+    <t>2024-03-19T11:54:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T11:54:35+00:00</t>
+    <t>2024-03-19T12:43:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T12:43:53+00:00</t>
+    <t>2024-03-19T13:26:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T13:26:08+00:00</t>
+    <t>2024-03-19T13:51:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T13:51:00+00:00</t>
+    <t>2024-03-20T06:05:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T06:05:05+00:00</t>
+    <t>2024-03-20T06:22:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T06:22:30+00:00</t>
+    <t>2024-03-20T06:38:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T06:38:18+00:00</t>
+    <t>2024-03-20T06:50:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T06:50:09+00:00</t>
+    <t>2024-03-20T07:15:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T07:15:53+00:00</t>
+    <t>2024-03-20T07:24:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T07:24:45+00:00</t>
+    <t>2024-03-20T08:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T08:43:36+00:00</t>
+    <t>2024-03-20T10:46:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T10:46:57+00:00</t>
+    <t>2024-03-25T06:36:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T06:36:04+00:00</t>
+    <t>2024-03-25T07:16:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T07:16:48+00:00</t>
+    <t>2024-03-25T07:28:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T07:28:08+00:00</t>
+    <t>2024-03-25T07:34:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T07:34:39+00:00</t>
+    <t>2024-03-27T04:56:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T07:53:49+00:00</t>
+    <t>2024-04-17T12:44:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T12:44:15+00:00</t>
+    <t>2024-04-17T12:55:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T12:55:02+00:00</t>
+    <t>2024-04-17T13:15:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T13:15:16+00:00</t>
+    <t>2024-04-17T13:21:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T13:21:13+00:00</t>
+    <t>2024-04-17T13:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T13:37:39+00:00</t>
+    <t>2024-04-17T13:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T13:46:31+00:00</t>
+    <t>2024-04-18T05:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T05:14:46+00:00</t>
+    <t>2024-04-18T05:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T05:19:41+00:00</t>
+    <t>2024-04-18T08:01:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T08:01:47+00:00</t>
+    <t>2024-04-25T15:11:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T15:11:21+00:00</t>
+    <t>2024-04-25T15:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T15:28:15+00:00</t>
+    <t>2024-04-29T05:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -632,7 +632,7 @@
     <t>MedicationDispense.medication</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(http://fhir.hl7.at/elga-e-medikation-R5/StructureDefinition/linca-medication)
+    <t xml:space="preserve">CodeableReference(http://fhir.hl7.at/elga-e-medikation-R5/StructureDefinition/eMed-medications)
 </t>
   </si>
   <si>
@@ -645,7 +645,7 @@
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
   </si>
   <si>
-    <t>https://termgit.elga.gv.at/CodeSystem-asp-liste</t>
+    <t>https://termgit.elga.gv.at/CodeSystem/asp-liste</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -856,7 +856,7 @@
     <t>MedicationDispense.authorizingPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.hl7.at/elga-e-medikation-R5/StructureDefinition/linca-prescription-medication-request)
+    <t xml:space="preserve">Reference(http://fhir.hl7.at/elga-e-medikation-R5/StructureDefinition/eMed-requests)
 </t>
   </si>
   <si>
@@ -2142,7 +2142,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.90625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.88671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:01:25+00:00</t>
+    <t>2024-04-29T05:16:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:16:02+00:00</t>
+    <t>2024-04-29T05:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:29:51+00:00</t>
+    <t>2024-04-29T05:40:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="595">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:40:46+00:00</t>
+    <t>2024-04-29T05:49:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -632,11 +632,11 @@
     <t>MedicationDispense.medication</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(http://fhir.hl7.at/elga-e-medikation-R5/StructureDefinition/eMed-medications)
+    <t xml:space="preserve">CodeableReference(Medication)
 </t>
   </si>
   <si>
-    <t>Medication that was dispensed, in conformance with ELGA CodeSystems (text-only, or text and number referencing one of the supported catalogs, as for example the PZN of the Austrian ASP).</t>
+    <t>Medication in conformance with the ELGA e-Medication used PZN (i.e. ASP-Liste). | Arzneimittel entsprechend der ELGA e-Medikation verwendet PZN (d.h. ASP-Liste).</t>
   </si>
   <si>
     <t>Identifies the medication supplied. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
@@ -661,6 +661,72 @@
   </si>
   <si>
     <t>RXD-2 Dispense/Give Code</t>
+  </si>
+  <si>
+    <t>MedicationDispense.medication.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationDispense.medication.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationDispense.medication.concept</t>
+  </si>
+  <si>
+    <t>Reference to a concept (by class)</t>
+  </si>
+  <si>
+    <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
+  </si>
+  <si>
+    <t>CodeableReference.concept</t>
+  </si>
+  <si>
+    <t>MedicationDispense.medication.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Reference to a resource (by instance)</t>
+  </si>
+  <si>
+    <t>A reference to a resource the provides exact details about the information being referenced.</t>
+  </si>
+  <si>
+    <t>CodeableReference.reference</t>
   </si>
   <si>
     <t>MedicationDispense.subject</t>
@@ -755,29 +821,7 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationDispense.performer.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationDispense.performer.modifierExtension</t>
@@ -1096,16 +1140,6 @@
   </si>
   <si>
     <t>MedicationDispense.dosageInstruction.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>MedicationDispense.dosageInstruction.modifierExtension</t>
@@ -2123,7 +2157,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO79"/>
+  <dimension ref="A1:AO83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2142,7 +2176,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.88671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.12109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4289,7 +4323,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>87</v>
@@ -4301,20 +4335,18 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>212</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -4363,53 +4395,53 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="AN19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -4421,15 +4453,17 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -4466,40 +4500,40 @@
         <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>76</v>
@@ -4510,10 +4544,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4521,10 +4555,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -4533,16 +4567,16 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4599,7 +4633,7 @@
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
@@ -4611,10 +4645,10 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>76</v>
@@ -4625,10 +4659,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4639,7 +4673,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -4648,16 +4682,16 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4708,13 +4742,13 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
@@ -4723,13 +4757,13 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>234</v>
+        <v>132</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>76</v>
@@ -4740,10 +4774,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4751,7 +4785,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>87</v>
@@ -4763,18 +4797,20 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4823,53 +4859,53 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4881,17 +4917,15 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4940,28 +4974,28 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>76</v>
@@ -4972,14 +5006,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4992,26 +5026,22 @@
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>135</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -5059,7 +5089,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -5071,16 +5101,16 @@
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>132</v>
+        <v>249</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>76</v>
@@ -5105,7 +5135,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -5117,18 +5147,16 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>253</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -5152,13 +5180,13 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>255</v>
+        <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -5182,7 +5210,7 @@
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
@@ -5191,13 +5219,13 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>76</v>
@@ -5208,10 +5236,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5219,7 +5247,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>87</v>
@@ -5234,13 +5262,13 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5291,28 +5319,28 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>76</v>
@@ -5323,21 +5351,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -5349,15 +5377,17 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>135</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -5406,19 +5436,19 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
@@ -5427,7 +5457,7 @@
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>76</v>
@@ -5438,44 +5468,46 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>269</v>
+        <v>135</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -5523,7 +5555,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5535,30 +5567,30 @@
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>274</v>
+        <v>132</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5584,13 +5616,15 @@
         <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5617,10 +5651,10 @@
         <v>182</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -5638,7 +5672,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5659,21 +5693,21 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>284</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5681,7 +5715,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>87</v>
@@ -5696,13 +5730,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5753,10 +5787,10 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>87</v>
@@ -5768,27 +5802,27 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5811,13 +5845,13 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5868,7 +5902,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5889,21 +5923,21 @@
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5911,7 +5945,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>87</v>
@@ -5926,15 +5960,17 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5983,13 +6019,13 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
@@ -5998,27 +6034,27 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>76</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6038,16 +6074,16 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6074,13 +6110,13 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -6098,7 +6134,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -6107,7 +6143,7 @@
         <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>99</v>
@@ -6119,21 +6155,21 @@
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6156,13 +6192,13 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6213,7 +6249,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6222,33 +6258,33 @@
         <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>311</v>
+        <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6271,13 +6307,13 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6328,7 +6364,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6349,21 +6385,21 @@
         <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>317</v>
+        <v>76</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6374,7 +6410,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -6386,13 +6422,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>320</v>
+        <v>185</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6443,13 +6479,13 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
@@ -6464,10 +6500,10 @@
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>76</v>
@@ -6475,10 +6511,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6489,7 +6525,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -6498,16 +6534,16 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>326</v>
+        <v>185</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6558,42 +6594,42 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>318</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>329</v>
+        <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6616,17 +6652,15 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>333</v>
+        <v>185</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6675,7 +6709,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6684,33 +6718,33 @@
         <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>318</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>76</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6721,7 +6755,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -6733,17 +6767,15 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -6792,13 +6824,13 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
@@ -6813,21 +6845,21 @@
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>76</v>
+        <v>331</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>76</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6838,7 +6870,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -6850,13 +6882,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>89</v>
+        <v>334</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>237</v>
+        <v>335</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>238</v>
+        <v>336</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6907,19 +6939,19 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>239</v>
+        <v>333</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
@@ -6928,10 +6960,10 @@
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>241</v>
+        <v>337</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>76</v>
+        <v>338</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>76</v>
@@ -6939,14 +6971,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6965,17 +6997,15 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>135</v>
+        <v>340</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>136</v>
+        <v>341</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -7012,19 +7042,19 @@
         <v>76</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>346</v>
+        <v>76</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>347</v>
+        <v>76</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>348</v>
+        <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>244</v>
+        <v>339</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -7036,66 +7066,64 @@
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>241</v>
+        <v>344</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>135</v>
+        <v>347</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>247</v>
+        <v>348</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>248</v>
+        <v>349</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
       </c>
@@ -7143,19 +7171,19 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
@@ -7164,7 +7192,7 @@
         <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>132</v>
+        <v>351</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>76</v>
@@ -7175,10 +7203,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7189,7 +7217,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -7198,21 +7226,21 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
         <v>355</v>
       </c>
+      <c r="N44" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
       </c>
@@ -7260,13 +7288,13 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
@@ -7287,15 +7315,15 @@
         <v>76</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>358</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7315,21 +7343,19 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>236</v>
+        <v>89</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>360</v>
+        <v>209</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>361</v>
+        <v>210</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>362</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>76</v>
       </c>
@@ -7377,7 +7403,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>363</v>
+        <v>211</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7386,10 +7412,10 @@
         <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
@@ -7398,25 +7424,25 @@
         <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>357</v>
+        <v>213</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>364</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7432,23 +7458,21 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>366</v>
+        <v>136</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>367</v>
+        <v>215</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
       </c>
@@ -7472,31 +7496,31 @@
         <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>370</v>
+        <v>76</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>371</v>
+        <v>76</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>372</v>
+        <v>219</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7508,7 +7532,7 @@
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
@@ -7517,53 +7541,57 @@
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>357</v>
+        <v>213</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>373</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>236</v>
+        <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>375</v>
+        <v>261</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
       </c>
@@ -7611,19 +7639,19 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -7632,21 +7660,21 @@
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>357</v>
+        <v>132</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>373</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7669,19 +7697,17 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>76</v>
@@ -7730,7 +7756,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7751,21 +7777,21 @@
         <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>76</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7788,18 +7814,18 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>387</v>
+        <v>257</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7847,7 +7873,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7856,7 +7882,7 @@
         <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>392</v>
+        <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>99</v>
@@ -7868,21 +7894,21 @@
         <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>394</v>
+        <v>375</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7908,15 +7934,17 @@
         <v>190</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7943,10 +7971,10 @@
         <v>182</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7964,7 +7992,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7973,7 +8001,7 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>392</v>
+        <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>99</v>
@@ -7985,21 +8013,21 @@
         <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8022,20 +8050,16 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
       </c>
@@ -8059,13 +8083,13 @@
         <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>407</v>
+        <v>76</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>408</v>
+        <v>76</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>76</v>
@@ -8083,7 +8107,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -8104,21 +8128,21 @@
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>410</v>
+        <v>368</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>411</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8141,17 +8165,19 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>190</v>
+        <v>390</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -8176,13 +8202,13 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>416</v>
+        <v>76</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>417</v>
+        <v>76</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
@@ -8200,7 +8226,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8221,21 +8247,21 @@
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>420</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8258,20 +8284,18 @@
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>190</v>
+        <v>398</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
       </c>
@@ -8295,13 +8319,13 @@
         <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>426</v>
+        <v>76</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>427</v>
+        <v>76</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>76</v>
@@ -8319,7 +8343,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8328,7 +8352,7 @@
         <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>99</v>
@@ -8340,21 +8364,21 @@
         <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>430</v>
+        <v>405</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8377,15 +8401,17 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>432</v>
+        <v>190</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -8410,13 +8436,13 @@
         <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>76</v>
+        <v>411</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>76</v>
@@ -8434,7 +8460,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8443,7 +8469,7 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>99</v>
@@ -8455,21 +8481,21 @@
         <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>437</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8489,19 +8515,23 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>237</v>
+        <v>414</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>76</v>
       </c>
@@ -8525,13 +8555,13 @@
         <v>76</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>76</v>
@@ -8549,7 +8579,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>239</v>
+        <v>420</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8558,10 +8588,10 @@
         <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
@@ -8570,32 +8600,32 @@
         <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>241</v>
+        <v>421</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>76</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -8604,21 +8634,21 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>136</v>
+        <v>424</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>76</v>
       </c>
@@ -8642,43 +8672,43 @@
         <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>76</v>
+        <v>427</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>346</v>
+        <v>76</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>347</v>
+        <v>76</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>348</v>
+        <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>244</v>
+        <v>429</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>76</v>
@@ -8687,21 +8717,21 @@
         <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>241</v>
+        <v>430</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>76</v>
+        <v>431</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8727,14 +8757,16 @@
         <v>190</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="O57" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -8762,10 +8794,10 @@
         <v>182</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>76</v>
@@ -8783,7 +8815,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8804,21 +8836,21 @@
         <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>76</v>
+        <v>440</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8829,7 +8861,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
@@ -8841,20 +8873,16 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>76</v>
       </c>
@@ -8890,23 +8918,25 @@
         <v>76</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AC58" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>348</v>
+        <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
@@ -8921,25 +8951,23 @@
         <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8960,20 +8988,16 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>460</v>
+        <v>209</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>76</v>
       </c>
@@ -9021,7 +9045,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>455</v>
+        <v>211</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -9030,10 +9054,10 @@
         <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>463</v>
+        <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>76</v>
@@ -9042,32 +9066,32 @@
         <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>464</v>
+        <v>213</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>465</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -9079,15 +9103,17 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -9124,31 +9150,31 @@
         <v>76</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>76</v>
@@ -9157,7 +9183,7 @@
         <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>76</v>
@@ -9168,21 +9194,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -9191,21 +9217,21 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>136</v>
+        <v>452</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>76</v>
       </c>
@@ -9229,43 +9255,43 @@
         <v>76</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>76</v>
+        <v>455</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>76</v>
+        <v>456</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>346</v>
+        <v>76</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>347</v>
+        <v>76</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>348</v>
+        <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>244</v>
+        <v>457</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>76</v>
@@ -9274,21 +9300,21 @@
         <v>76</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9311,19 +9337,19 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>76</v>
@@ -9360,19 +9386,17 @@
         <v>76</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9393,23 +9417,25 @@
         <v>76</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>76</v>
       </c>
@@ -9418,36 +9444,36 @@
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>107</v>
+        <v>300</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="O63" t="s" s="2">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q63" t="s" s="2">
-        <v>485</v>
-      </c>
+      <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
         <v>76</v>
       </c>
@@ -9467,13 +9493,13 @@
         <v>76</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>486</v>
+        <v>76</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>487</v>
+        <v>76</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>76</v>
@@ -9491,7 +9517,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9503,7 +9529,7 @@
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>474</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>76</v>
@@ -9512,21 +9538,21 @@
         <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>490</v>
+        <v>476</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9546,21 +9572,19 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>236</v>
+        <v>89</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>493</v>
+        <v>209</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>494</v>
+        <v>210</v>
       </c>
       <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>495</v>
-      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>76</v>
       </c>
@@ -9608,7 +9632,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>496</v>
+        <v>211</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9617,10 +9641,10 @@
         <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>76</v>
@@ -9629,32 +9653,32 @@
         <v>76</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>497</v>
+        <v>213</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>498</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -9663,21 +9687,21 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>501</v>
+        <v>136</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>76</v>
       </c>
@@ -9713,31 +9737,31 @@
         <v>76</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>504</v>
+        <v>219</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>505</v>
+        <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>76</v>
@@ -9746,21 +9770,21 @@
         <v>76</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>506</v>
+        <v>213</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>498</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9783,19 +9807,19 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>107</v>
+        <v>483</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>76</v>
@@ -9820,11 +9844,13 @@
         <v>76</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y66" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z66" t="s" s="2">
-        <v>513</v>
+        <v>76</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>76</v>
@@ -9842,7 +9868,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9851,7 +9877,7 @@
         <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>505</v>
+        <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>99</v>
@@ -9863,21 +9889,21 @@
         <v>76</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9888,36 +9914,36 @@
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>517</v>
+        <v>107</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="R67" t="s" s="2">
         <v>76</v>
       </c>
@@ -9937,13 +9963,13 @@
         <v>76</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>76</v>
+        <v>497</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>76</v>
+        <v>498</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>76</v>
@@ -9961,7 +9987,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9982,21 +10008,21 @@
         <v>76</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>524</v>
+        <v>501</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>525</v>
+        <v>502</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10007,7 +10033,7 @@
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
@@ -10019,19 +10045,17 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>526</v>
+        <v>257</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>76</v>
@@ -10080,13 +10104,13 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>76</v>
@@ -10101,21 +10125,21 @@
         <v>76</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>533</v>
+        <v>509</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10138,19 +10162,17 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>286</v>
+        <v>101</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>537</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>76</v>
@@ -10199,7 +10221,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10208,7 +10230,7 @@
         <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>76</v>
+        <v>516</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>99</v>
@@ -10220,21 +10242,21 @@
         <v>76</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>76</v>
+        <v>509</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10257,17 +10279,19 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>286</v>
+        <v>107</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="O70" t="s" s="2">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>76</v>
@@ -10292,13 +10316,11 @@
         <v>76</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>76</v>
+        <v>524</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>76</v>
@@ -10316,7 +10338,7 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10325,7 +10347,7 @@
         <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>76</v>
+        <v>516</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>99</v>
@@ -10337,21 +10359,21 @@
         <v>76</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>76</v>
+        <v>509</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10371,19 +10393,23 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>230</v>
+        <v>528</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>530</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>76</v>
       </c>
@@ -10431,7 +10457,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10452,21 +10478,21 @@
         <v>76</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>550</v>
+        <v>76</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>76</v>
+        <v>535</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10477,7 +10503,7 @@
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -10486,19 +10512,23 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>236</v>
+        <v>537</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>237</v>
+        <v>538</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>76</v>
       </c>
@@ -10546,19 +10576,19 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>239</v>
+        <v>542</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>76</v>
@@ -10567,32 +10597,32 @@
         <v>76</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>241</v>
+        <v>543</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>76</v>
+        <v>544</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
@@ -10601,21 +10631,23 @@
         <v>76</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>135</v>
+        <v>300</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>136</v>
+        <v>546</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>243</v>
+        <v>547</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>76</v>
       </c>
@@ -10663,19 +10695,19 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>244</v>
+        <v>550</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>76</v>
@@ -10684,7 +10716,7 @@
         <v>76</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>241</v>
+        <v>551</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>76</v>
@@ -10695,45 +10727,43 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>135</v>
+        <v>300</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>247</v>
+        <v>553</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>144</v>
+        <v>555</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>76</v>
@@ -10782,19 +10812,19 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>249</v>
+        <v>556</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>76</v>
@@ -10803,7 +10833,7 @@
         <v>76</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>132</v>
+        <v>551</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>76</v>
@@ -10814,10 +10844,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10825,7 +10855,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>87</v>
@@ -10840,13 +10870,13 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>387</v>
+        <v>251</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10897,10 +10927,10 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>87</v>
@@ -10918,10 +10948,10 @@
         <v>76</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>76</v>
+        <v>561</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>76</v>
@@ -10929,10 +10959,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10955,13 +10985,13 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>559</v>
+        <v>209</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>560</v>
+        <v>210</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10988,13 +11018,13 @@
         <v>76</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>561</v>
+        <v>76</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>562</v>
+        <v>76</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>76</v>
@@ -11012,7 +11042,7 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>558</v>
+        <v>211</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -11021,10 +11051,10 @@
         <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>76</v>
@@ -11033,25 +11063,25 @@
         <v>76</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>563</v>
+        <v>76</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>564</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11070,15 +11100,17 @@
         <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>566</v>
+        <v>136</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>76</v>
@@ -11103,13 +11135,13 @@
         <v>76</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>568</v>
+        <v>76</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>569</v>
+        <v>76</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>76</v>
@@ -11127,7 +11159,7 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>565</v>
+        <v>219</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11139,7 +11171,7 @@
         <v>76</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>76</v>
@@ -11148,10 +11180,10 @@
         <v>76</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>570</v>
+        <v>213</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>571</v>
+        <v>76</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>76</v>
@@ -11159,42 +11191,46 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>573</v>
+        <v>135</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>574</v>
+        <v>261</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>76</v>
       </c>
@@ -11242,19 +11278,19 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>572</v>
+        <v>263</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>76</v>
@@ -11263,10 +11299,10 @@
         <v>76</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>576</v>
+        <v>132</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>577</v>
+        <v>76</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>76</v>
@@ -11274,10 +11310,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11285,10 +11321,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>76</v>
@@ -11300,17 +11336,15 @@
         <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>579</v>
+        <v>398</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>582</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>76</v>
@@ -11359,13 +11393,13 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>76</v>
@@ -11380,12 +11414,474 @@
         <v>76</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="AN79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO79" t="s" s="2">
+      <c r="B82" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:49:30+00:00</t>
+    <t>2024-04-29T07:46:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T07:46:22+00:00</t>
+    <t>2024-04-29T14:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T14:03:26+00:00</t>
+    <t>2024-04-30T04:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T04:58:04+00:00</t>
+    <t>2024-04-30T05:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -900,7 +900,7 @@
     <t>MedicationDispense.authorizingPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.hl7.at/elga-e-medikation-R5/StructureDefinition/eMed-requests)
+    <t xml:space="preserve">Reference(http://fhir.hl7.at/elga-e-medikation-R5/StructureDefinition/eMed-request)
 </t>
   </si>
   <si>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T05:08:54+00:00</t>
+    <t>2024-04-30T09:05:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T09:05:02+00:00</t>
+    <t>2024-05-06T07:04:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T07:04:06+00:00</t>
+    <t>2024-05-06T08:04:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T08:04:54+00:00</t>
+    <t>2024-05-13T06:24:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -732,7 +732,7 @@
     <t>MedicationDispense.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.hl7.at/elga-e-medikation-R5/StructureDefinition/at-core-patient)
+    <t xml:space="preserve">Reference(http://hl7.at/fhir/HL7ATCoreProfiles/5.0.0/StructureDefinition/at-core-patient)
 </t>
   </si>
   <si>
@@ -2176,7 +2176,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.12109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="81.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T06:24:50+00:00</t>
+    <t>2024-06-05T08:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T08:21:33+00:00</t>
+    <t>2024-06-06T13:51:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-linca-dipsense-documentation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T13:51:15+00:00</t>
+    <t>2024-06-26T06:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
